--- a/LF/TAS/Nigeria/2024/july_2024/kebbi/ng_lf_tas_2407_1_sit_part_kb.xlsx
+++ b/LF/TAS/Nigeria/2024/july_2024/kebbi/ng_lf_tas_2407_1_sit_part_kb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\july_2024\kebbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF28679-CBAA-4DAF-A5C9-E9DF0D0E28B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B7707-9887-4BFE-AE36-CC6DA50022E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -4120,7 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1181" sqref="A1181:A1182"/>
     </sheetView>
@@ -20442,8 +20442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
